--- a/medicine/Sexualité et sexologie/La_Godinette/La_Godinette.xlsx
+++ b/medicine/Sexualité et sexologie/La_Godinette/La_Godinette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Godinette est une chanson paillarde française traditionnelle, d'origine bretonne. Le terme « godinette » peut évoquer une relation sexuelle impromptue de peu d'importance (la godinette = « la bagatelle ») ou le sexe de l’homme ou de la femme (la godinette = « le petit godet ») .
@@ -512,7 +524,9 @@
           <t>Thématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chanson explique que Jeannette est sollicitée par François aux fins de relations sexuelles. Après avoir calmé les réticences de la jeune femme, qui a peur de « perdre la croix » (la virginité), le jeune homme parvient à ses fins : le couple se retire dans les bois. En fin de chanson, on apprend qu'à la suite de cette relation, Jeannette est tombée enceinte. La morale de la chanson est qu'une femme peut tomber enceinte même avec « une malheureuse petite fois ».
 </t>
